--- a/db_import/cook_list.xlsx
+++ b/db_import/cook_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jh/project/mabi-cook-book/db_import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436CEDCD-9EF6-AB46-8629-E1C280FEC9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02EE7AC-012E-4F43-8B2A-745E77417971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="6780" windowWidth="21200" windowHeight="21100" xr2:uid="{E023F469-52ED-4E4B-A0E6-D9EEE2516B75}"/>
+    <workbookView xWindow="3620" yWindow="500" windowWidth="21200" windowHeight="17500" xr2:uid="{E023F469-52ED-4E4B-A0E6-D9EEE2516B75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="1245">
   <si>
     <t>감자계란샐러드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4912,6 +4912,90 @@
   </si>
   <si>
     <t>ingredients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠면조 테트라치니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영양만점 호두과자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀밤 라떼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모둠조개회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가리비 치즈구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가리비 토마토 스튜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey Tetrazzini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walnut Cookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honey Chestnut Latte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assorted Slices of Raw Clam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roast Scallop with Cheese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomato Stew with Scallop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠면조 고기, 송로버섯, 크림 파르팔레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호두, 팥소, 밀가루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAKING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOILING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삶은 밤, 신선한 벌꿀, 우유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JULIENNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가리비, 키조개, 초장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가리비, 치즈 조각, 파프리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가리비, 양파, 토마토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5311,9 +5395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF706663-A3D8-5E4D-8445-228168EA3F0A}">
-  <dimension ref="A1:E407"/>
+  <dimension ref="A1:E413"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D414" sqref="D414"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -12239,6 +12325,108 @@
         <v>520</v>
       </c>
     </row>
+    <row r="408" spans="1:5">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1244</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E407">
     <sortCondition ref="A1:A407"/>
